--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:48:43+00:00</t>
+    <t>2023-09-01T15:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,13 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>eclaire-study-status-code-system</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/research-study-status</t>
   </si>
   <si>
     <t>a-demarrer</t>
@@ -448,148 +454,148 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2"/>
     </row>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T15:11:28+00:00</t>
+    <t>2023-09-01T16:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T16:11:30+00:00</t>
+    <t>2023-09-01T16:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T16:27:26+00:00</t>
+    <t>2023-09-01T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T17:43:23+00:00</t>
+    <t>2023-09-01T17:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T17:52:23+00:00</t>
+    <t>2023-09-01T18:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T18:07:06+00:00</t>
+    <t>2023-09-01T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T19:56:54+00:00</t>
+    <t>2023-09-01T20:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:06:11+00:00</t>
+    <t>2023-09-01T20:29:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:29:55+00:00</t>
+    <t>2023-09-01T20:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:45:21+00:00</t>
+    <t>2023-09-04T08:26:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:26:45+00:00</t>
+    <t>2023-09-04T08:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:52:21+00:00</t>
+    <t>2023-09-04T09:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FHIR-Eclaire-status-concept-map</t>
+    <t>FHIR_Eclaire_status_concept_map</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T09:00:04+00:00</t>
+    <t>2023-09-04T09:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-correction-conceptmaps/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T09:07:49+00:00</t>
+    <t>2023-09-04T10:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
